--- a/experiment result/64_0.4_40_zs20_kappa_lp.xlsx
+++ b/experiment result/64_0.4_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0381536010687433</v>
+        <v>0.004681603500105502</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04884838195488741</v>
+        <v>0.004227874301116352</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06953175529627721</v>
+        <v>0.01003775022727714</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04749852772018938</v>
+        <v>0.006530945896041784</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04250814402144944</v>
+        <v>0.004426755992034825</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05842233304596099</v>
+        <v>0.009124232887950843</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05777003707569843</v>
+        <v>0.004693869924974768</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03816603764571837</v>
+        <v>0.00794367788448528</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06114854760307221</v>
+        <v>0.009954964111414269</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08281375998506788</v>
+        <v>0.008194711816966077</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08141150077082077</v>
+        <v>0.02345488406721431</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04746910868511559</v>
+        <v>0.02261542046028757</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04880641222349134</v>
+        <v>0.004508181386634632</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07825803688214386</v>
+        <v>0.005536688442234641</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05536696563538179</v>
+        <v>0.01055950594470986</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07623744416920492</v>
+        <v>0.007189290196242644</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06743777076643812</v>
+        <v>0.006854210825858726</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05162976823580893</v>
+        <v>0.00289785456968586</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05523299426609253</v>
+        <v>0.008992495349050261</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05186311481369726</v>
+        <v>0.007113194357498432</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0413963473544607</v>
+        <v>0.004070607436356865</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03754290951314571</v>
+        <v>0.004994926464035032</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06996589671737154</v>
+        <v>0.01643253462692559</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0322276502405031</v>
+        <v>0.002219285994833359</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02799461603350204</v>
+        <v>0.002980509862922436</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06835911427370205</v>
+        <v>0.01197233512138794</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07938716740313635</v>
+        <v>0.01017024036447241</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04413379894306134</v>
+        <v>0.01240825240012278</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04750463742531188</v>
+        <v>0.007925520142247707</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08479717009194759</v>
+        <v>0.01798744130875175</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02058454095913353</v>
+        <v>0.001017027326856588</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03156798436302906</v>
+        <v>0.001803897569880873</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09540358483005282</v>
+        <v>0.01084473358469368</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0535345156722992</v>
+        <v>0.005809157199631626</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06148301838171825</v>
+        <v>0.01285616376895054</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07947509186795487</v>
+        <v>0.01019338612241498</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03880878095272709</v>
+        <v>0.003144287665661848</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07298603804861362</v>
+        <v>0.01061121061774207</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03053798156053478</v>
+        <v>0.008708473826127045</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.05355124403614485</v>
+        <v>0.03375064911189465</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07026129964923991</v>
+        <v>0.01339232740859857</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04599145842724518</v>
+        <v>0.01005416956345295</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03452783449013778</v>
+        <v>0.004880711919000157</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03005843713471702</v>
+        <v>0.005210407673653765</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03685904772593732</v>
+        <v>0.009532629912041551</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07638476385203523</v>
+        <v>0.007419425581208033</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.05844408813815947</v>
+        <v>0.01406383789882261</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02432509140150738</v>
+        <v>0.001240664184450479</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.05444041297846021</v>
+        <v>0.006188686672078276</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.04453614726301801</v>
+        <v>0.001815389089897732</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03814752977192428</v>
+        <v>0.005069214550186209</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06049645008666486</v>
+        <v>0.007012351857495452</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01948405755799389</v>
+        <v>6.480156503923952e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02702815320281848</v>
+        <v>0.0006055601527061722</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05477723010717171</v>
+        <v>0.00449346038885848</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.05394627200660584</v>
+        <v>0.0118113599581839</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0489629438939242</v>
+        <v>0.003324087262548116</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06290930057131813</v>
+        <v>0.004686833269512049</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07228051271784805</v>
+        <v>0.009727831176016589</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03754214595329724</v>
+        <v>0.002607672013536079</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02076670639394268</v>
+        <v>0.0007116617193578368</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0354144041840624</v>
+        <v>0.008579347184039021</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.05147610234166405</v>
+        <v>0.007101733294566571</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03954998019407975</v>
+        <v>0.001611895539601126</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.05620713707263999</v>
+        <v>0.02099781491924951</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.05677314739760988</v>
+        <v>0.008322960893118059</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05131133829569727</v>
+        <v>0.007869044122694001</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03536812488243639</v>
+        <v>0.001711661314122331</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03377075781020972</v>
+        <v>0.001541276461105184</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03886928588098208</v>
+        <v>0.004508443164480544</v>
       </c>
     </row>
   </sheetData>
